--- a/Doc/BDR_2016-5.xlsx
+++ b/Doc/BDR_2016-5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="ESTUDIANTES" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ASISTENCIA!$A$1:$N$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ASISTENCIA!$A$1:$M$16</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="60">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -163,9 +163,6 @@
     <t>11-OCT</t>
   </si>
   <si>
-    <t>13-OCT</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD CIENTIFICA DEL SUR</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>Villanueva Flores, Kevin</t>
   </si>
   <si>
-    <t>CASO</t>
-  </si>
-  <si>
     <t>Alta Disponibilidad de Base de Datos</t>
   </si>
   <si>
@@ -206,6 +200,9 @@
   </si>
   <si>
     <t>PART</t>
+  </si>
+  <si>
+    <t>PRE</t>
   </si>
 </sst>
 </file>
@@ -364,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,12 +387,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,9 +406,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -454,6 +444,16 @@
     </xf>
     <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -790,51 +790,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -842,34 +842,34 @@
         <v>25</v>
       </c>
       <c r="C2" s="2">
-        <f>ASISTENCIA!O6</f>
+        <f>ASISTENCIA!N6</f>
         <v>15</v>
       </c>
       <c r="D2" s="2">
+        <f>EXPERIENCIA!C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <f>EXPERIENCIA!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <f>EXPERIENCIA!E2</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2">
         <f>PARTICIPACION!F2</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2">
-        <f>INVESTIGACION!G2</f>
-        <v>0</v>
+        <f>INVESTIGACION!H2</f>
+        <v>16</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="16">
         <f>C2*0.2+D2*0.05+E2*0.05+F2*0.1+G2*0.4+H2*0.2</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -877,34 +877,34 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <f>ASISTENCIA!O7</f>
+        <f>ASISTENCIA!N7</f>
         <v>20</v>
       </c>
       <c r="D3" s="2">
+        <f>EXPERIENCIA!C3</f>
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
         <f>EXPERIENCIA!D3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <f>EXPERIENCIA!E3</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2">
         <f>PARTICIPACION!F3</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2">
-        <f>INVESTIGACION!G3</f>
-        <v>0</v>
+        <f>INVESTIGACION!H3</f>
+        <v>17</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="16">
         <f t="shared" ref="I3:I12" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -912,34 +912,34 @@
         <v>27</v>
       </c>
       <c r="C4" s="2">
-        <f>ASISTENCIA!O8</f>
-        <v>15</v>
+        <f>ASISTENCIA!N8</f>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
+        <f>EXPERIENCIA!C4</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
         <f>EXPERIENCIA!D4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <f>EXPERIENCIA!E4</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2">
         <f>PARTICIPACION!F4</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2">
-        <f>INVESTIGACION!G4</f>
-        <v>0</v>
+        <f>INVESTIGACION!H4</f>
+        <v>16</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="18">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I4" s="16">
+        <f t="shared" si="0"/>
+        <v>12.150000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -947,34 +947,34 @@
         <v>28</v>
       </c>
       <c r="C5" s="2">
-        <f>ASISTENCIA!O9</f>
-        <v>18</v>
+        <f>ASISTENCIA!N9</f>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
+        <f>EXPERIENCIA!C5</f>
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
         <f>EXPERIENCIA!D5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <f>EXPERIENCIA!E5</f>
         <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>PARTICIPACION!F5</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2">
-        <f>INVESTIGACION!G5</f>
-        <v>0</v>
+        <f>INVESTIGACION!H5</f>
+        <v>19</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="18">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I5" s="16">
+        <f t="shared" si="0"/>
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -982,34 +982,34 @@
         <v>29</v>
       </c>
       <c r="C6" s="2">
-        <f>ASISTENCIA!O10</f>
+        <f>ASISTENCIA!N10</f>
         <v>19</v>
       </c>
       <c r="D6" s="2">
+        <f>EXPERIENCIA!C6</f>
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
         <f>EXPERIENCIA!D6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <f>EXPERIENCIA!E6</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <f>PARTICIPACION!F6</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2">
-        <f>INVESTIGACION!G6</f>
-        <v>0</v>
+        <f>INVESTIGACION!H6</f>
+        <v>16</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="18">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I6" s="16">
+        <f t="shared" si="0"/>
+        <v>13.150000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1017,34 +1017,34 @@
         <v>30</v>
       </c>
       <c r="C7" s="2">
-        <f>ASISTENCIA!O11</f>
+        <f>ASISTENCIA!N11</f>
         <v>14</v>
       </c>
       <c r="D7" s="2">
+        <f>EXPERIENCIA!C7</f>
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
         <f>EXPERIENCIA!D7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <f>EXPERIENCIA!E7</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
         <f>PARTICIPACION!F7</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2">
-        <f>INVESTIGACION!G7</f>
-        <v>0</v>
+        <f>INVESTIGACION!H7</f>
+        <v>17</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="18">
-        <f t="shared" si="0"/>
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I7" s="16">
+        <f t="shared" si="0"/>
+        <v>12.900000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1052,34 +1052,34 @@
         <v>31</v>
       </c>
       <c r="C8" s="2">
-        <f>ASISTENCIA!O12</f>
+        <f>ASISTENCIA!N12</f>
         <v>19</v>
       </c>
       <c r="D8" s="2">
+        <f>EXPERIENCIA!C8</f>
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
         <f>EXPERIENCIA!D8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <f>EXPERIENCIA!E8</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2">
         <f>PARTICIPACION!F8</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2">
-        <f>INVESTIGACION!G8</f>
-        <v>0</v>
+        <f>INVESTIGACION!H8</f>
+        <v>17</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="18">
-        <f t="shared" si="0"/>
-        <v>4.6000000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I8" s="16">
+        <f t="shared" si="0"/>
+        <v>13.600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1087,69 +1087,69 @@
         <v>32</v>
       </c>
       <c r="C9" s="2">
-        <f>ASISTENCIA!O13</f>
+        <f>ASISTENCIA!N13</f>
         <v>20</v>
       </c>
       <c r="D9" s="2">
+        <f>EXPERIENCIA!C9</f>
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
         <f>EXPERIENCIA!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <f>EXPERIENCIA!E9</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2">
         <f>PARTICIPACION!F9</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2">
-        <f>INVESTIGACION!G9</f>
-        <v>0</v>
+        <f>INVESTIGACION!H9</f>
+        <v>17</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="18">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I9" s="16">
+        <f t="shared" si="0"/>
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2">
-        <f>ASISTENCIA!O14</f>
+        <f>ASISTENCIA!N14</f>
         <v>16</v>
       </c>
       <c r="D10" s="2">
+        <f>EXPERIENCIA!C10</f>
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
         <f>EXPERIENCIA!D10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <f>EXPERIENCIA!E10</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2">
         <f>PARTICIPACION!F10</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2">
-        <f>INVESTIGACION!G10</f>
-        <v>0</v>
+        <f>INVESTIGACION!H10</f>
+        <v>16</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="18">
-        <f t="shared" si="0"/>
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I10" s="16">
+        <f t="shared" si="0"/>
+        <v>11.850000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1157,34 +1157,34 @@
         <v>33</v>
       </c>
       <c r="C11" s="2">
-        <f>ASISTENCIA!O15</f>
+        <f>ASISTENCIA!N15</f>
         <v>18</v>
       </c>
       <c r="D11" s="2">
+        <f>EXPERIENCIA!C11</f>
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
         <f>EXPERIENCIA!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <f>EXPERIENCIA!E11</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
         <f>PARTICIPACION!F11</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2">
-        <f>INVESTIGACION!G11</f>
-        <v>0</v>
+        <f>INVESTIGACION!H11</f>
+        <v>16</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="18">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I11" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1192,61 +1192,61 @@
         <v>34</v>
       </c>
       <c r="C12" s="2">
-        <f>ASISTENCIA!O16</f>
+        <f>ASISTENCIA!N16</f>
         <v>20</v>
       </c>
       <c r="D12" s="2">
+        <f>EXPERIENCIA!C12</f>
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
         <f>EXPERIENCIA!D12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <f>EXPERIENCIA!E12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2">
         <f>PARTICIPACION!F12</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2">
-        <f>INVESTIGACION!G12</f>
-        <v>0</v>
+        <f>INVESTIGACION!H12</f>
+        <v>15</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="18">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="30">
-        <f>AVERAGE(C2:C12)</f>
-        <v>17.636363636363637</v>
-      </c>
-      <c r="D13" s="30">
-        <f>AVERAGE(D2:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <f>AVERAGE(E2:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
-        <f>AVERAGE(F2:F12)</f>
-        <v>7</v>
-      </c>
-      <c r="G13" s="30">
-        <f>AVERAGE(G2:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
-        <f>AVERAGE(H2:H12)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <f>AVERAGE(I2:I12)</f>
-        <v>4.2272727272727275</v>
+      <c r="I12" s="16">
+        <f t="shared" si="0"/>
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="27">
+        <f t="shared" ref="C13:I13" si="1">AVERAGE(C2:C12)</f>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="D13" s="27">
+        <f t="shared" si="1"/>
+        <v>13.363636363636363</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="1"/>
+        <v>12.727272727272727</v>
+      </c>
+      <c r="F13" s="27">
+        <f t="shared" si="1"/>
+        <v>14.818181818181818</v>
+      </c>
+      <c r="G13" s="27">
+        <f t="shared" si="1"/>
+        <v>16.545454545454547</v>
+      </c>
+      <c r="H13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="1"/>
+        <v>12.895454545454545</v>
       </c>
     </row>
   </sheetData>
@@ -1259,41 +1259,41 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
-    <col min="5" max="14" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
+    <col min="5" max="13" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1334,13 +1334,10 @@
         <v>45</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -1348,41 +1345,42 @@
         <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C6:N6,"F") - COUNTIF(C6:N6,"T")/2,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:N16" si="0">ROUNDUP( 20 - COUNTIF(C6:M6,"F") - COUNTIF(C6:M6,"T")/2,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -1390,41 +1388,42 @@
         <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C7:N7,"F") - COUNTIF(C7:N7,"T")/2,0)</f>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>3</v>
       </c>
@@ -1432,41 +1431,42 @@
         <v>27</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="I8" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C8:N8,"F") - COUNTIF(C8:N8,"T")/2,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -1474,41 +1474,42 @@
         <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C9:N9,"F") - COUNTIF(C9:N9,"T")/2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -1516,41 +1517,42 @@
         <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C10:N10,"F") - COUNTIF(C10:N10,"T")/2,0)</f>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -1558,41 +1560,42 @@
         <v>30</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="I11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C11:N11,"F") - COUNTIF(C11:N11,"T")/2,0)</f>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>7</v>
       </c>
@@ -1600,41 +1603,42 @@
         <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C12:N12,"F") - COUNTIF(C12:N12,"T")/2,0)</f>
+      <c r="N12" s="2">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>8</v>
       </c>
@@ -1642,83 +1646,85 @@
         <v>32</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C13:N13,"F") - COUNTIF(C13:N13,"T")/2,0)</f>
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C14:N14,"F") - COUNTIF(C14:N14,"T")/2,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>10</v>
       </c>
@@ -1726,41 +1732,42 @@
         <v>33</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C15:N15,"F") - COUNTIF(C15:N15,"T")/2,0)</f>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>11</v>
       </c>
@@ -1768,196 +1775,185 @@
         <v>34</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C16:N16,"F") - COUNTIF(C16:N16,"T")/2,0)</f>
+      <c r="N16" s="2">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="20">
-        <f>COUNTIF(C6:C16,"=P")</f>
+      <c r="C17" s="18">
+        <f t="shared" ref="C17:M17" si="1">COUNTIF(C6:C16,"=P")</f>
         <v>6</v>
       </c>
-      <c r="D17" s="20">
-        <f>COUNTIF(D6:D16,"=P")</f>
+      <c r="D17" s="18">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E17" s="20">
-        <f>COUNTIF(E6:E16,"=P")</f>
+      <c r="E17" s="18">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F17" s="20">
-        <f>COUNTIF(F6:F16,"=P")</f>
+      <c r="F17" s="18">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G17" s="20">
-        <f>COUNTIF(G6:G16,"=P")</f>
+      <c r="G17" s="18">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H17" s="20">
-        <f>COUNTIF(H6:H16,"=P")</f>
+      <c r="H17" s="18">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I17" s="20">
-        <f>COUNTIF(I6:I16,"=P")</f>
+      <c r="I17" s="18">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J17" s="20">
-        <f>COUNTIF(J6:J16,"=P")</f>
+      <c r="J17" s="18">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K17" s="20">
-        <f>COUNTIF(K6:K16,"=P")</f>
+      <c r="K17" s="18">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L17" s="20">
-        <f>COUNTIF(L6:L16,"=P")</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="20">
-        <f>COUNTIF(M6:M16,"=P")</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="20">
-        <f>COUNTIF(N6:N16,"=P")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="s">
+      <c r="L17" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M17" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="20">
-        <f>COUNTIF(C6:C16,"=T")</f>
+      <c r="C18" s="18">
+        <f t="shared" ref="C18:M18" si="2">COUNTIF(C6:C16,"=T")</f>
         <v>1</v>
       </c>
-      <c r="D18" s="20">
-        <f>COUNTIF(D6:D16,"=T")</f>
+      <c r="D18" s="18">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E18" s="20">
-        <f>COUNTIF(E6:E16,"=T")</f>
+      <c r="E18" s="18">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F18" s="20">
-        <f>COUNTIF(F6:F16,"=T")</f>
+      <c r="F18" s="18">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G18" s="20">
-        <f>COUNTIF(G6:G16,"=T")</f>
+      <c r="G18" s="18">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H18" s="20">
-        <f>COUNTIF(H6:H16,"=T")</f>
+      <c r="H18" s="18">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I18" s="20">
-        <f>COUNTIF(I6:I16,"=T")</f>
+      <c r="I18" s="18">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J18" s="20">
-        <f>COUNTIF(J6:J16,"=T")</f>
+      <c r="J18" s="18">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K18" s="20">
-        <f>COUNTIF(K6:K16,"=T")</f>
+      <c r="K18" s="18">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L18" s="20">
-        <f>COUNTIF(L6:L16,"=T")</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="20">
-        <f>COUNTIF(M6:M16,"=T")</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="20">
-        <f>COUNTIF(N6:N16,"=T")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
+      <c r="L18" s="18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="20">
-        <f>COUNTIF(C6:C16,"=F")</f>
+      <c r="C19" s="18">
+        <f t="shared" ref="C19:M19" si="3">COUNTIF(C6:C16,"=F")</f>
         <v>4</v>
       </c>
-      <c r="D19" s="20">
-        <f>COUNTIF(D6:D16,"=F")</f>
+      <c r="D19" s="18">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E19" s="20">
-        <f>COUNTIF(E6:E16,"=F")</f>
+      <c r="E19" s="18">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F19" s="20">
-        <f>COUNTIF(F6:F16,"=F")</f>
+      <c r="F19" s="18">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G19" s="20">
-        <f>COUNTIF(G6:G16,"=F")</f>
+      <c r="G19" s="18">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H19" s="20">
-        <f>COUNTIF(H6:H16,"=F")</f>
+      <c r="H19" s="18">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I19" s="20">
-        <f>COUNTIF(I6:I16,"=F")</f>
+      <c r="I19" s="18">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J19" s="20">
-        <f>COUNTIF(J6:J16,"=F")</f>
+      <c r="J19" s="18">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K19" s="20">
-        <f>COUNTIF(K6:K16,"=F")</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="20">
-        <f>COUNTIF(L6:L16,"=F")</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="20">
-        <f>COUNTIF(M6:M16,"=F")</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="20">
-        <f>COUNTIF(N6:N16,"=F")</f>
+      <c r="K19" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1973,200 +1969,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="22" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="C3" s="14">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="C4" s="14">
+        <v>12</v>
+      </c>
+      <c r="D4" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="C5" s="14">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="C6" s="14">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="C7" s="14">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="C8" s="14">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="C9" s="14">
+        <v>16</v>
+      </c>
+      <c r="D9" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="B10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="14">
+        <v>12</v>
+      </c>
+      <c r="D10" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="C11" s="14">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="16">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16"/>
+      <c r="C12" s="14">
+        <v>16</v>
+      </c>
+      <c r="D12" s="14">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2178,267 +2157,267 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="31" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="26">
-        <v>0</v>
-      </c>
-      <c r="D2" s="26">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26">
-        <v>0</v>
-      </c>
-      <c r="F2" s="26">
+      <c r="C2" s="23">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>13</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23">
         <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="23">
         <v>13</v>
       </c>
-      <c r="D3" s="26">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26">
-        <v>0</v>
-      </c>
-      <c r="F3" s="26">
+      <c r="D3" s="23">
+        <v>18</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
         <f t="shared" ref="F3:F12" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="23">
+        <v>16</v>
+      </c>
+      <c r="D4" s="23">
+        <v>17</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="23">
+        <v>19</v>
+      </c>
+      <c r="D5" s="23">
+        <v>16</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="23">
+        <v>11</v>
+      </c>
+      <c r="D6" s="23">
+        <v>17</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="23">
+        <v>17</v>
+      </c>
+      <c r="D7" s="23">
+        <v>18</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="26">
-        <v>16</v>
-      </c>
-      <c r="D4" s="26">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
-        <f t="shared" si="0"/>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="23">
+        <v>16</v>
+      </c>
+      <c r="D8" s="23">
+        <v>16</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="26">
-        <v>19</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0</v>
-      </c>
-      <c r="E5" s="26">
-        <v>0</v>
-      </c>
-      <c r="F5" s="26">
-        <f t="shared" si="0"/>
+      <c r="B9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="23">
+        <v>18</v>
+      </c>
+      <c r="D9" s="23">
+        <v>15</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="23">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
-        <v>5</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="26">
+      <c r="D10" s="23">
+        <v>10</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="23">
+        <v>16</v>
+      </c>
+      <c r="D11" s="23">
+        <v>16</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="D6" s="26">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0</v>
-      </c>
-      <c r="F6" s="26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="26">
-        <v>17</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0</v>
-      </c>
-      <c r="F7" s="26">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
-        <v>7</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="26">
-        <v>16</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0</v>
-      </c>
-      <c r="E8" s="26">
-        <v>0</v>
-      </c>
-      <c r="F8" s="26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="26">
-        <v>18</v>
-      </c>
-      <c r="D9" s="26">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>9</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="26">
-        <v>10</v>
-      </c>
-      <c r="D10" s="26">
-        <v>0</v>
-      </c>
-      <c r="E10" s="26">
-        <v>0</v>
-      </c>
-      <c r="F10" s="26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="26">
-        <v>16</v>
-      </c>
-      <c r="D11" s="26">
-        <v>0</v>
-      </c>
-      <c r="E11" s="26">
-        <v>0</v>
-      </c>
-      <c r="F11" s="26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="23">
         <v>14</v>
       </c>
-      <c r="D12" s="26">
-        <v>0</v>
-      </c>
-      <c r="E12" s="26">
-        <v>0</v>
-      </c>
-      <c r="F12" s="26">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="D12" s="23">
+        <v>13</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2449,341 +2428,412 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="23">
+        <v>16</v>
+      </c>
+      <c r="E2" s="35">
+        <v>16</v>
+      </c>
+      <c r="F2" s="23">
+        <v>16</v>
+      </c>
+      <c r="G2" s="23">
+        <v>16</v>
+      </c>
+      <c r="H2" s="35">
+        <f t="shared" ref="H2:H5" si="0">ROUNDUP(SUM(D2:G2)/4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="23">
+        <v>18</v>
+      </c>
+      <c r="E3" s="35">
+        <v>16</v>
+      </c>
+      <c r="F3" s="35">
+        <v>16</v>
+      </c>
+      <c r="G3" s="35">
+        <v>18</v>
+      </c>
+      <c r="H3" s="35">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="23">
+        <v>16</v>
+      </c>
+      <c r="E4" s="35">
+        <v>16</v>
+      </c>
+      <c r="F4" s="35">
+        <v>16</v>
+      </c>
+      <c r="G4" s="35">
+        <v>16</v>
+      </c>
+      <c r="H4" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="23">
+        <v>19</v>
+      </c>
+      <c r="E5" s="35">
+        <v>19</v>
+      </c>
+      <c r="F5" s="35">
+        <v>19</v>
+      </c>
+      <c r="G5" s="35">
+        <v>18</v>
+      </c>
+      <c r="H5" s="35">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="36">
+        <v>19</v>
+      </c>
+      <c r="E6" s="35">
+        <v>16</v>
+      </c>
+      <c r="F6" s="35">
+        <v>13</v>
+      </c>
+      <c r="G6" s="35">
+        <v>15</v>
+      </c>
+      <c r="H6" s="35">
+        <f>ROUNDUP(SUM(D6:G6)/4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="23">
+        <v>18</v>
+      </c>
+      <c r="E7" s="35">
+        <v>16</v>
+      </c>
+      <c r="F7" s="35">
+        <v>16</v>
+      </c>
+      <c r="G7" s="35">
+        <v>18</v>
+      </c>
+      <c r="H7" s="35">
+        <f t="shared" ref="H7:H12" si="1">ROUNDUP(SUM(D7:G7)/4,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="23">
+        <v>16</v>
+      </c>
+      <c r="E8" s="35">
+        <v>19</v>
+      </c>
+      <c r="F8" s="35">
+        <v>16</v>
+      </c>
+      <c r="G8" s="35">
+        <v>15</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="23">
+        <v>19</v>
+      </c>
+      <c r="E9" s="35">
+        <v>16</v>
+      </c>
+      <c r="F9" s="35">
+        <v>16</v>
+      </c>
+      <c r="G9" s="35">
+        <v>15</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="36">
+        <v>16</v>
+      </c>
+      <c r="E10" s="35">
+        <v>16</v>
+      </c>
+      <c r="F10" s="35">
+        <v>16</v>
+      </c>
+      <c r="G10" s="35">
+        <v>16</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="36">
+        <v>16</v>
+      </c>
+      <c r="E11" s="35">
+        <v>16</v>
+      </c>
+      <c r="F11" s="35">
+        <v>16</v>
+      </c>
+      <c r="G11" s="35">
+        <v>15</v>
+      </c>
+      <c r="H11" s="35">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="B12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="36">
+        <v>16</v>
+      </c>
+      <c r="E12" s="35">
+        <v>16</v>
+      </c>
+      <c r="F12" s="35">
+        <v>13</v>
+      </c>
+      <c r="G12" s="35">
+        <v>15</v>
+      </c>
+      <c r="H12" s="35">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <f>ROUNDUP((D2+E2-F2)/3,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G12" si="0">ROUNDUP((D3+E3-F3)/3,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B16" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="B17" s="24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2792,65 +2842,65 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>

--- a/Doc/BDR_2016-5.xlsx
+++ b/Doc/BDR_2016-5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="60">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,7 +843,7 @@
       </c>
       <c r="C2" s="2">
         <f>ASISTENCIA!N6</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <f>EXPERIENCIA!C2</f>
@@ -862,11 +862,11 @@
         <v>16</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I2" s="16">
         <f>C2*0.2+D2*0.05+E2*0.05+F2*0.1+G2*0.4+H2*0.2</f>
-        <v>10.75</v>
+        <v>12.950000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -897,11 +897,11 @@
         <v>17</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I3" s="16">
         <f t="shared" ref="I3:I12" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>13.9</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -932,11 +932,11 @@
         <v>16</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>12.150000000000002</v>
+        <v>14.550000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -967,11 +967,11 @@
         <v>19</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" si="0"/>
-        <v>13.55</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1002,11 +1002,11 @@
         <v>16</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="0"/>
-        <v>13.150000000000002</v>
+        <v>16.350000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1037,11 +1037,11 @@
         <v>17</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="0"/>
-        <v>12.900000000000002</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1072,11 +1072,11 @@
         <v>17</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="0"/>
-        <v>13.600000000000001</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1107,11 +1107,11 @@
         <v>17</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="0"/>
-        <v>14.05</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1142,11 +1142,11 @@
         <v>16</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="0"/>
-        <v>11.850000000000001</v>
+        <v>14.250000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1177,11 +1177,11 @@
         <v>16</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1212,17 +1212,17 @@
         <v>15</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="0"/>
-        <v>12.95</v>
+        <v>16.149999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C13" s="27">
         <f t="shared" ref="C13:I13" si="1">AVERAGE(C2:C12)</f>
-        <v>17.454545454545453</v>
+        <v>17.363636363636363</v>
       </c>
       <c r="D13" s="27">
         <f t="shared" si="1"/>
@@ -1242,11 +1242,11 @@
       </c>
       <c r="H13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="I13" s="27">
         <f t="shared" si="1"/>
-        <v>12.895454545454545</v>
+        <v>15.822727272727274</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1265,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,10 +1374,12 @@
       <c r="L6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="N6" s="2">
         <f t="shared" ref="N6:N16" si="0">ROUNDUP( 20 - COUNTIF(C6:M6,"F") - COUNTIF(C6:M6,"T")/2,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1417,7 +1419,9 @@
       <c r="L7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1460,7 +1464,9 @@
       <c r="L8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1503,7 +1509,9 @@
       <c r="L9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="N9" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1546,7 +1554,9 @@
       <c r="L10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="9"/>
+      <c r="M10" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="N10" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1589,7 +1599,9 @@
       <c r="L11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="N11" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1632,7 +1644,9 @@
       <c r="L12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="9"/>
+      <c r="M12" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="N12" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1675,7 +1689,9 @@
       <c r="L13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1718,7 +1734,9 @@
       <c r="L14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="N14" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1761,7 +1779,9 @@
       <c r="L15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="N15" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1804,7 +1824,9 @@
       <c r="L16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="M16" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1856,7 +1878,7 @@
       </c>
       <c r="M17" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
@@ -1905,7 +1927,7 @@
       </c>
       <c r="M18" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" x14ac:dyDescent="0.35">
@@ -2157,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
